--- a/DATA/Geol_data.xlsx
+++ b/DATA/Geol_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\Desktop\GIT _SUBMIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\Desktop\GIT _SUBMIT\Project-2\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439D68D6-BC14-436D-BFC9-0D1BACE075D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227284F-1FF5-4DDD-8585-B4035BD587A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-4908" windowWidth="23232" windowHeight="12696" xr2:uid="{7B9436C1-D84F-4B3E-8884-B9335B5E775C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7B9436C1-D84F-4B3E-8884-B9335B5E775C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Depo</t>
+  </si>
+  <si>
+    <t>Litho</t>
+  </si>
+  <si>
+    <t>TypeLocality</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>Raritan</t>
+  </si>
+  <si>
+    <t>Archingeay</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +420,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0A1E64-3511-4936-9F3F-3DC7BB758727}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>